--- a/apache-poi/src/test/resources/baeldung.xlsx
+++ b/apache-poi/src/test/resources/baeldung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seferio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seferio\Documents\baeldung\repository\tutorials\apache-poi\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF777D8D-7637-4128-90C5-433E20FC0A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53A4AF9-4C28-4ACD-AF2F-3F3502566F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6A419A7A-F5D0-47EF-A9B8-84FC5DA050B5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A419A7A-F5D0-47EF-A9B8-84FC5DA050B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFE954D-872F-458B-AC1F-E69F4CA8388D}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -528,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFD78C3-4252-44DD-946C-5C1457C70913}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
